--- a/test1.xlsx
+++ b/test1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,16 @@
           <t>Score</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Moyenne Factuality</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Moyenne Readability</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,30 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Factuality</t>
+          <t>Factuality and Readability</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8414592146873474</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Test1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Factuality</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.8414592146873474</t>
-        </is>
+          <t>0.1585407853126526 / 2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1585407853126526</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
